--- a/Readme.xlsx
+++ b/Readme.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Run the main method in the red box to access the link below</t>
   </si>
@@ -22,10 +22,27 @@
     <t>http://localhost:8081/export/index</t>
   </si>
   <si>
+    <t>Check Integrity Report：</t>
+  </si>
+  <si>
+    <t>http://localhost:8081/export/integrityReportIndex</t>
+  </si>
+  <si>
     <t>Clicking export generates a.xls file in the project's folder Report path</t>
   </si>
   <si>
     <t>Configure connection data sources</t>
+  </si>
+  <si>
+    <t>当需要达成jar时请把上面红框的先取消注释在进行打包，并且请在打成jar包的同级下创建一个config文件夹将项目中的application.yml放在里面，我们需要修改数据库配置直接在config里面的application.yml进行修改就行了。如果不打成jar包运行请注释掉，不然项目也会去请求项目同级目录下的config里面的application.yml。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">产生报表的路径在jar包目录的同级文件夹checkIntegrityReport(存放的是不完整数据的报表)， Report文件夹存放的是数据报表，我们不需要配置文件夹路径，项目会自己创建。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">注意事项：当我们在修改application.yml时请不要去动里面配置的空格，因为.yml是通过空格来进行读取配置的。
+</t>
   </si>
 </sst>
 </file>
@@ -34,9 +51,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -60,6 +77,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -68,12 +100,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -90,7 +162,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,101 +170,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -211,187 +228,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,9 +424,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -418,7 +437,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,27 +472,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -497,8 +514,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,10 +527,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -522,16 +539,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,119 +557,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -665,8 +682,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -734,15 +760,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>154305</xdr:rowOff>
+      <xdr:rowOff>145415</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -759,54 +785,12 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="9525"/>
+          <a:off x="19050" y="635"/>
           <a:ext cx="4676775" cy="3573780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>469265</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>48260</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9525" y="4286250"/>
-          <a:ext cx="5841365" cy="1419860"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -832,7 +816,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -841,6 +825,170 @@
         <a:xfrm>
           <a:off x="0" y="6343650"/>
           <a:ext cx="14135100" cy="6143625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>364490</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14992350" y="10287000"/>
+          <a:ext cx="5841365" cy="1419860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>477520</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="1569481620(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270" y="4476750"/>
+          <a:ext cx="5857875" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485140</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="13216890"/>
+          <a:ext cx="14086840" cy="7290435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>29210</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="21774150"/>
+          <a:ext cx="6096000" cy="2809875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1114,10 +1262,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A22:A73"/>
+  <dimension ref="A22:Q147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1130,24 +1278,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
     </row>
     <row r="35" ht="27" spans="1:1">
       <c r="A35" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="4" t="s">
-        <v>3</v>
+      <c r="A73" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A119:C125"/>
+    <mergeCell ref="D119:J125"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A24" r:id="rId2" display="http://localhost:8081/export/index"/>
+    <hyperlink ref="A24" r:id="rId2" display="http://localhost:8081/export/index" tooltip="http://localhost:8081/export/index"/>
+    <hyperlink ref="F24" r:id="rId3" display="http://localhost:8081/export/integrityReportIndex"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Readme.xlsx
+++ b/Readme.xlsx
@@ -52,8 +52,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -85,32 +85,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,8 +124,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -154,15 +184,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,44 +193,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,13 +228,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,163 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,20 +424,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,6 +446,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -468,15 +466,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +508,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -527,10 +527,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,16 +539,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,112 +560,112 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,6 +1001,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>189230</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6256655" y="4410075"/>
+          <a:ext cx="5302885" cy="1684020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1264,8 +1306,8 @@
   <sheetPr/>
   <dimension ref="A22:Q147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1285,16 +1327,9 @@
       <c r="C24" t="s">
         <v>2</v>
       </c>
-      <c r="D24"/>
-      <c r="E24"/>
       <c r="F24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
